--- a/group_results/PCA Info.xlsx
+++ b/group_results/PCA Info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.59</v>
+        <v>46.43</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4</v>
+        <v>42.71</v>
       </c>
       <c r="D2" t="n">
-        <v>7.88</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="4">
@@ -468,13 +468,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08293837703402793</v>
+        <v>0.03271514417886331</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1027262360787375</v>
+        <v>0.08712305766684986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04707635594555399</v>
+        <v>0.002542870459968611</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0811961279728485</v>
+        <v>0.03489944433469765</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0968924246254472</v>
+        <v>0.07046609556977138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08810561892976151</v>
+        <v>0.09099246168888614</v>
       </c>
     </row>
     <row r="7">
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08109086386602596</v>
+        <v>0.03216472311958419</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.09250323791070134</v>
+        <v>0.03399624755153927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1008097419250226</v>
+        <v>0.1700364119734707</v>
       </c>
     </row>
     <row r="8">
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0822420407408391</v>
+        <v>0.03128608232350224</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.08910102842143913</v>
+        <v>-0.009315513991679845</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101818095134677</v>
+        <v>0.1747891717757107</v>
       </c>
     </row>
     <row r="9">
@@ -532,13 +532,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08353913699169087</v>
+        <v>0.04619176557669863</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08497960320110577</v>
+        <v>-0.04276113298131778</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09777266695433855</v>
+        <v>0.1037820062486091</v>
       </c>
     </row>
     <row r="10">
@@ -548,13 +548,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08515457761038751</v>
+        <v>0.06458265405017181</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.08183312578068586</v>
+        <v>-0.041128538881282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08356009489039408</v>
+        <v>0.02562301000831839</v>
       </c>
     </row>
     <row r="11">
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08674617412815999</v>
+        <v>0.07212825983091696</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07921476968742253</v>
+        <v>-0.02689256323390849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05822484463561607</v>
+        <v>0.007271229708870193</v>
       </c>
     </row>
     <row r="12">
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08772742532213347</v>
+        <v>0.07706670087782257</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07709950052191392</v>
+        <v>-0.01643232017178302</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03186612308544272</v>
+        <v>0.01877521404813435</v>
       </c>
     </row>
     <row r="13">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08811570075533932</v>
+        <v>0.0801905611339094</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07510184371364453</v>
+        <v>0.001164289853150471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003047101477877547</v>
+        <v>0.05009620908375398</v>
       </c>
     </row>
     <row r="14">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08724910945617526</v>
+        <v>0.07711632323413134</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.07493088881372244</v>
+        <v>0.0273669567673491</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0255966850387283</v>
+        <v>0.07561219570771606</v>
       </c>
     </row>
     <row r="15">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08589329108215742</v>
+        <v>0.06624555790188148</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07460940644226999</v>
+        <v>0.05126940372437934</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05125792506325662</v>
+        <v>0.1024647497523463</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0844229912812835</v>
+        <v>0.05491734933826194</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.07306561195214269</v>
+        <v>0.06561755901588591</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07596977720988893</v>
+        <v>0.1153001358306548</v>
       </c>
     </row>
     <row r="17">
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08334440951832654</v>
+        <v>0.04820788740145793</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07070379938476061</v>
+        <v>0.07082937328874413</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09980715054584534</v>
+        <v>0.109580035227226</v>
       </c>
     </row>
     <row r="18">
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.08168047886306209</v>
+        <v>0.045255568416065</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.06837419587927238</v>
+        <v>0.07096052022753027</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1266431723627376</v>
+        <v>0.0866766462334241</v>
       </c>
     </row>
     <row r="19">
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0803469015225752</v>
+        <v>0.04517990682938664</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.06600664392137832</v>
+        <v>0.0682030363863954</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1485461127853425</v>
+        <v>0.06010237775133465</v>
       </c>
     </row>
     <row r="20">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0788326949927293</v>
+        <v>0.04716184093812609</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06560568192224774</v>
+        <v>0.06361753492941097</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1623927319193881</v>
+        <v>0.03038282402594611</v>
       </c>
     </row>
     <row r="21">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07760502613014528</v>
+        <v>0.04863623831226978</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06750511445022103</v>
+        <v>0.05971747187467153</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1692319827196122</v>
+        <v>-0.00739733326496119</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07752945231939773</v>
+        <v>0.04946537217671365</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.07208462294380352</v>
+        <v>0.05962138607544729</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1670494005325458</v>
+        <v>-0.0398236272107382</v>
       </c>
     </row>
     <row r="23">
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.07894377165500006</v>
+        <v>0.04731288536053622</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.07664956257745778</v>
+        <v>0.0650350896031094</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1564854797847617</v>
+        <v>-0.0677637240154411</v>
       </c>
     </row>
     <row r="24">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08113274099402085</v>
+        <v>0.04038733244641945</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08120582597791916</v>
+        <v>0.07174517316605518</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.139006237587799</v>
+        <v>-0.1021746765153344</v>
       </c>
     </row>
     <row r="25">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.08343930264270352</v>
+        <v>0.03320443522085263</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.08592134369169328</v>
+        <v>0.0771396030917517</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1171270689285746</v>
+        <v>-0.1305582138710558</v>
       </c>
     </row>
     <row r="26">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.08509988052774883</v>
+        <v>0.03029949817843503</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.09211468164287354</v>
+        <v>0.07757837210235952</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0924552289196756</v>
+        <v>-0.1516080582581295</v>
       </c>
     </row>
     <row r="27">
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08594718480237697</v>
+        <v>0.03003238767340358</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.09977725558700598</v>
+        <v>0.08083392099486066</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06448319976895124</v>
+        <v>-0.1448673667118612</v>
       </c>
     </row>
     <row r="28">
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08605331732449471</v>
+        <v>0.0313009787771607</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1065371506124141</v>
+        <v>0.08550015456345822</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03288119990561666</v>
+        <v>-0.1148299641931361</v>
       </c>
     </row>
     <row r="29">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08463334995362368</v>
+        <v>0.02940059248864531</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1133115575961057</v>
+        <v>0.0890688014932174</v>
       </c>
       <c r="D29" t="n">
-        <v>1.76468224235123e-06</v>
+        <v>-0.07996130412545659</v>
       </c>
     </row>
     <row r="30">
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.09480924836039276</v>
+        <v>0.0942557338123079</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08588753604273243</v>
+        <v>0.01455781045552177</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.06356910973814464</v>
+        <v>-0.02159289319233299</v>
       </c>
     </row>
     <row r="31">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09643009115847903</v>
+        <v>0.09387333363197957</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08453982883382428</v>
+        <v>0.003824335883531241</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04200353338939927</v>
+        <v>-0.02372239786688679</v>
       </c>
     </row>
     <row r="32">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0973110563838236</v>
+        <v>0.0903216987688177</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08349476456105272</v>
+        <v>-0.01782331360062629</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03043121399090855</v>
+        <v>-0.04261568295443267</v>
       </c>
     </row>
     <row r="33">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.09789601055950267</v>
+        <v>0.08374494101920207</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08200584372685917</v>
+        <v>-0.03728644697967361</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02638402761824878</v>
+        <v>-0.06134388025575346</v>
       </c>
     </row>
     <row r="34">
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.09806869951611052</v>
+        <v>0.07915078872913794</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08146239905026367</v>
+        <v>-0.04837728082727978</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.02832583224906907</v>
+        <v>-0.07804025000317058</v>
       </c>
     </row>
     <row r="35">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09812149553659784</v>
+        <v>0.08051416181657622</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08060438816459831</v>
+        <v>-0.04949290274736266</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.03640362416915319</v>
+        <v>-0.07952680353163738</v>
       </c>
     </row>
     <row r="36">
@@ -964,13 +964,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.09795339040089057</v>
+        <v>0.08469468516207969</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07937420989524292</v>
+        <v>-0.04479878381514198</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.05096135561440621</v>
+        <v>-0.06651008595195844</v>
       </c>
     </row>
     <row r="37">
@@ -980,13 +980,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.09724570921448059</v>
+        <v>0.08908558797010263</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07823958218112587</v>
+        <v>-0.03751966766112735</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.06690825635020149</v>
+        <v>-0.04323301449379929</v>
       </c>
     </row>
     <row r="38">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.09598066513828322</v>
+        <v>0.09303773254449876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07715936454954846</v>
+        <v>-0.02806217740390231</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.08420492022569008</v>
+        <v>-0.01743078345450302</v>
       </c>
     </row>
     <row r="39">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.09430358804586271</v>
+        <v>0.09603808457288963</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07600995799935498</v>
+        <v>-0.01647612380230798</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1012811133481133</v>
+        <v>-0.0008985491453659292</v>
       </c>
     </row>
     <row r="40">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.09237564277947385</v>
+        <v>0.09735968804413622</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07579365070155389</v>
+        <v>-0.004893841346312568</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1157269565287306</v>
+        <v>0.01639681260092507</v>
       </c>
     </row>
     <row r="41">
@@ -1044,13 +1044,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.09039622733915277</v>
+        <v>0.09688961096060429</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07642095893767333</v>
+        <v>0.00395648843328572</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1272076527807219</v>
+        <v>0.02888033984755952</v>
       </c>
     </row>
     <row r="42">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.08838635321414177</v>
+        <v>0.09547782755466019</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07723428330005823</v>
+        <v>0.007466496827225424</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1372125596947364</v>
+        <v>0.03024983715341038</v>
       </c>
     </row>
     <row r="43">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.08578201208968289</v>
+        <v>0.09371989210786445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07868240011073781</v>
+        <v>0.006567264848255109</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1477700686739893</v>
+        <v>0.0190970906723336</v>
       </c>
     </row>
     <row r="44">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.083710033065149</v>
+        <v>0.09282178940524317</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07892136348727651</v>
+        <v>0.002631830379387374</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1563996684345093</v>
+        <v>0.006297471204665145</v>
       </c>
     </row>
     <row r="45">
@@ -1108,13 +1108,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.08238925816748963</v>
+        <v>0.09279415804094238</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08006511807374933</v>
+        <v>-0.002867481861058224</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1603242442648842</v>
+        <v>-0.007587307054795016</v>
       </c>
     </row>
     <row r="46">
@@ -1124,13 +1124,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.08176187852306746</v>
+        <v>0.09290220727349557</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08194252724836461</v>
+        <v>-0.008108138737260408</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1609725866992421</v>
+        <v>-0.02759604193441841</v>
       </c>
     </row>
     <row r="47">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.08201118915231527</v>
+        <v>0.09318691032367504</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08435350119023345</v>
+        <v>-0.01154713414215958</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1569184687008541</v>
+        <v>-0.04720882455867895</v>
       </c>
     </row>
     <row r="48">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0831843773622537</v>
+        <v>0.09367726394091885</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08712248354947444</v>
+        <v>-0.01127873456934562</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1481467293766367</v>
+        <v>-0.06477868732175374</v>
       </c>
     </row>
     <row r="49">
@@ -1172,13 +1172,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.08462465813336099</v>
+        <v>0.09387588868384876</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0899602802266667</v>
+        <v>-0.009151307586926897</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1368101511338678</v>
+        <v>-0.07735081861895791</v>
       </c>
     </row>
     <row r="50">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08620378695122594</v>
+        <v>0.09425999082365868</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09145168067161664</v>
+        <v>-0.00595953679259647</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1251771893810064</v>
+        <v>-0.08179078999541511</v>
       </c>
     </row>
     <row r="51">
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.08752487405573549</v>
+        <v>0.09409790924563603</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09241991707673634</v>
+        <v>-0.001239325322604205</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1142894360134056</v>
+        <v>-0.08731811266316393</v>
       </c>
     </row>
     <row r="52">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.08878996420527664</v>
+        <v>0.09406739122554372</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09291229145991509</v>
+        <v>0.004753818396392962</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1030195323124569</v>
+        <v>-0.08553288545968371</v>
       </c>
     </row>
     <row r="53">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.09001886372017516</v>
+        <v>0.0944464395823373</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09233970905572723</v>
+        <v>0.01056591343516328</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.09213047660694294</v>
+        <v>-0.06724836105309712</v>
       </c>
     </row>
     <row r="54">
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.09101679107356914</v>
+        <v>0.09400733263210363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09179063235439469</v>
+        <v>0.01376665185699932</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.08183664290829187</v>
+        <v>-0.04984556477228999</v>
       </c>
     </row>
     <row r="55">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.05135531526250593</v>
+        <v>0.08982978402750923</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1442750697432079</v>
+        <v>-0.01279310613489182</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1566500055364319</v>
+        <v>0.08104599028598651</v>
       </c>
     </row>
     <row r="56">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05048022252172774</v>
+        <v>0.07379773979867074</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1368116107376342</v>
+        <v>-0.03207976308277521</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1737252583171379</v>
+        <v>0.1476824021605745</v>
       </c>
     </row>
     <row r="57">
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05098505671339705</v>
+        <v>0.0460311974872792</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1326305859938293</v>
+        <v>-0.06233952477194086</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1791099708889799</v>
+        <v>0.1625237545041354</v>
       </c>
     </row>
     <row r="58">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.05164511202251139</v>
+        <v>0.03358875485808333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1302721660140657</v>
+        <v>-0.08080881922394785</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1792916444012409</v>
+        <v>0.1219625239738088</v>
       </c>
     </row>
     <row r="59">
@@ -1332,13 +1332,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.05283853394390766</v>
+        <v>0.04589974618660205</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1296083608626729</v>
+        <v>-0.08585997767725893</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1744423862781223</v>
+        <v>0.06340338694004702</v>
       </c>
     </row>
     <row r="60">
@@ -1348,13 +1348,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.05508522533872044</v>
+        <v>0.07020874457156609</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1316260853157119</v>
+        <v>-0.06840140553415855</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1616193501578348</v>
+        <v>0.02472697260254056</v>
       </c>
     </row>
     <row r="61">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0587165627023299</v>
+        <v>0.08426947127313346</v>
       </c>
       <c r="C61" t="n">
-        <v>0.132421163930891</v>
+        <v>-0.04037833335178641</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1442055143083162</v>
+        <v>0.01795439724389741</v>
       </c>
     </row>
     <row r="62">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.06256730970246253</v>
+        <v>0.08801300279227861</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1338564436500385</v>
+        <v>-0.02235887118939718</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1243980527540809</v>
+        <v>0.05558103951769505</v>
       </c>
     </row>
     <row r="63">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.06610155974907569</v>
+        <v>0.08709219535527363</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1353560413849429</v>
+        <v>-0.009349862002630747</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1005521984187772</v>
+        <v>0.1033007089992132</v>
       </c>
     </row>
     <row r="64">
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.06785596310647131</v>
+        <v>0.08257287542599734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1387553620092787</v>
+        <v>0.003676897357173829</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0757942502232286</v>
+        <v>0.1512720893828343</v>
       </c>
     </row>
     <row r="65">
@@ -1428,13 +1428,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06953317477091277</v>
+        <v>0.07496715246805205</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1414274979641974</v>
+        <v>0.01102143360369499</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04816106237920217</v>
+        <v>0.1947995498254263</v>
       </c>
     </row>
     <row r="66">
@@ -1444,13 +1444,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.07011736905323977</v>
+        <v>0.06880963260467275</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1446517650182619</v>
+        <v>0.0120890459351271</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01880239605577689</v>
+        <v>0.2198300818555593</v>
       </c>
     </row>
     <row r="67">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.06955889707649018</v>
+        <v>0.06651313216650923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1482965050432589</v>
+        <v>0.006976866016321147</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.008534665316063077</v>
+        <v>0.2303426985285626</v>
       </c>
     </row>
     <row r="68">
@@ -1476,13 +1476,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06839853592285929</v>
+        <v>0.06815690228288615</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1510437101933826</v>
+        <v>-0.003629589200085441</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.03527237522347575</v>
+        <v>0.2271389814051631</v>
       </c>
     </row>
     <row r="69">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.06761415659457645</v>
+        <v>0.07090045026929576</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1517152487058109</v>
+        <v>-0.01578407615206628</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.05259258977045318</v>
+        <v>0.2119282754516392</v>
       </c>
     </row>
     <row r="70">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06647132865554227</v>
+        <v>0.07411641397845364</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1541990131717331</v>
+        <v>-0.02747207939336733</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.05636779306678148</v>
+        <v>0.1858704562631711</v>
       </c>
     </row>
     <row r="71">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.06571899910762734</v>
+        <v>0.0774705875394565</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1565863711157806</v>
+        <v>-0.03680526534283023</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.0518901622885715</v>
+        <v>0.1505760431962859</v>
       </c>
     </row>
     <row r="72">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.06599514321022074</v>
+        <v>0.08066627273175113</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1578282442610459</v>
+        <v>-0.04092670589825252</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.04035601115414907</v>
+        <v>0.1145261924667574</v>
       </c>
     </row>
     <row r="73">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.06575491497990976</v>
+        <v>0.0832644255299308</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1595979696071507</v>
+        <v>-0.04067324850546285</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01870209917050516</v>
+        <v>0.08300793608189234</v>
       </c>
     </row>
     <row r="74">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06524847832459747</v>
+        <v>0.08510634422580818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1603194366931298</v>
+        <v>-0.03839531226712698</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006038548475956191</v>
+        <v>0.05666325199958267</v>
       </c>
     </row>
     <row r="75">
@@ -1588,13 +1588,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.06468318254144027</v>
+        <v>0.08589934843559832</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1595072861853265</v>
+        <v>-0.03552252406994027</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03553094753970504</v>
+        <v>0.03401597441887141</v>
       </c>
     </row>
     <row r="76">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.06231508534198876</v>
+        <v>0.08772705713642244</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1591072235718796</v>
+        <v>-0.03054497935519623</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06491057206323866</v>
+        <v>0.007461615739742118</v>
       </c>
     </row>
     <row r="77">
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.06023159668017507</v>
+        <v>0.09054422676607295</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1570064823834756</v>
+        <v>-0.02335238585420267</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09189524713131739</v>
+        <v>-0.006963388611574895</v>
       </c>
     </row>
     <row r="78">
@@ -1636,13 +1636,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.05737939612381845</v>
+        <v>0.09283154552035432</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1548940966568987</v>
+        <v>-0.01530935848782912</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1152570359143042</v>
+        <v>0.005064985977587432</v>
       </c>
     </row>
     <row r="79">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05412195985044997</v>
+        <v>0.09332289964318986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1517277862153272</v>
+        <v>-0.01045779402836936</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1368589045640737</v>
+        <v>0.02456915680595204</v>
       </c>
     </row>
     <row r="80">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1005540195906478</v>
+        <v>0.0642356238273435</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.05852615878460532</v>
+        <v>0.07458794911438413</v>
       </c>
       <c r="D80" t="n">
-        <v>0.06727613386155661</v>
+        <v>0.03807034562422511</v>
       </c>
     </row>
     <row r="81">
@@ -1684,13 +1684,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1010758013079498</v>
+        <v>0.06515210905339183</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.05068218281097155</v>
+        <v>0.07421549450045625</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06944754156179712</v>
+        <v>0.01642558543710388</v>
       </c>
     </row>
     <row r="82">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1016009648795607</v>
+        <v>0.06768167408376656</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.04417597482704567</v>
+        <v>0.06933086035926328</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06944915791255198</v>
+        <v>-0.01994287532176921</v>
       </c>
     </row>
     <row r="83">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1019851779356076</v>
+        <v>0.08062587572742594</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.04156178474810479</v>
+        <v>0.05056869654655791</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06836326137448431</v>
+        <v>-0.05170183686480202</v>
       </c>
     </row>
     <row r="84">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1019402579955313</v>
+        <v>0.09143262442697778</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.04435569400630277</v>
+        <v>0.02417844610183872</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06295147054244728</v>
+        <v>-0.07063823908159236</v>
       </c>
     </row>
     <row r="85">
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1019810865330231</v>
+        <v>0.09489871438496526</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.04783396084627588</v>
+        <v>0.009138948331487335</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05351819253518593</v>
+        <v>-0.07030506744871867</v>
       </c>
     </row>
     <row r="86">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1021246315130293</v>
+        <v>0.09515333321498502</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.05091383012289779</v>
+        <v>0.009818346154915293</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04118104202203108</v>
+        <v>-0.05575778966066516</v>
       </c>
     </row>
     <row r="87">
@@ -1780,13 +1780,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1021333338646246</v>
+        <v>0.09398729956217289</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.05178035704049475</v>
+        <v>0.01940567870250438</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03132164081010509</v>
+        <v>-0.02574521616540408</v>
       </c>
     </row>
     <row r="88">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1019857437565585</v>
+        <v>0.09004240578869478</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.05313609888164617</v>
+        <v>0.0360650817601401</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02383926665739037</v>
+        <v>-0.007364367726506989</v>
       </c>
     </row>
     <row r="89">
@@ -1812,13 +1812,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1016198911779237</v>
+        <v>0.08309431282711499</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.05481257930025814</v>
+        <v>0.0527707476208328</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02214239413310904</v>
+        <v>0.001049706926472881</v>
       </c>
     </row>
     <row r="90">
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1016009159065241</v>
+        <v>0.07611811950493505</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.05560798124726556</v>
+        <v>0.06366146016872273</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02220349093047075</v>
+        <v>0.009833469454150447</v>
       </c>
     </row>
     <row r="91">
@@ -1844,13 +1844,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1019362605084161</v>
+        <v>0.07097412975513609</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.05506854596390864</v>
+        <v>0.06972092919147863</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0211499298826626</v>
+        <v>0.01270969551466401</v>
       </c>
     </row>
     <row r="92">
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1029252147741954</v>
+        <v>0.06778925208276511</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.0496393853657175</v>
+        <v>0.07295690381366213</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01861027542539038</v>
+        <v>0.01259907303668974</v>
       </c>
     </row>
     <row r="93">
@@ -1876,13 +1876,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1037851758788761</v>
+        <v>0.06607264440532196</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.04523771056485971</v>
+        <v>0.07456514947453555</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01249576882635574</v>
+        <v>0.01081139169893645</v>
       </c>
     </row>
     <row r="94">
@@ -1892,13 +1892,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1044826893424093</v>
+        <v>0.06485214162369456</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0446454230888292</v>
+        <v>0.07559952483526608</v>
       </c>
       <c r="D94" t="n">
-        <v>0.006826595215950172</v>
+        <v>0.01026316391509135</v>
       </c>
     </row>
     <row r="95">
@@ -1908,13 +1908,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1047905718386419</v>
+        <v>0.06398334654350912</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.04649322100576211</v>
+        <v>0.07617332436020885</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00666225222313304</v>
+        <v>0.01139185644556526</v>
       </c>
     </row>
     <row r="96">
@@ -1924,13 +1924,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.105109186041938</v>
+        <v>0.06334039242059554</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.04656974851570175</v>
+        <v>0.0764469890486433</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01007116866101531</v>
+        <v>0.0135247148231472</v>
       </c>
     </row>
     <row r="97">
@@ -1940,13 +1940,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1054548931737278</v>
+        <v>0.0627119343546943</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.04494775887989285</v>
+        <v>0.07672435548826961</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01795709754667025</v>
+        <v>0.01682157787286813</v>
       </c>
     </row>
     <row r="98">
@@ -1956,13 +1956,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1056602633878144</v>
+        <v>0.06188813399964564</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.04240432857156515</v>
+        <v>0.0771652659718777</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02814032716517874</v>
+        <v>0.02055938346768743</v>
       </c>
     </row>
     <row r="99">
@@ -1972,13 +1972,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1056507231915424</v>
+        <v>0.06103843430537127</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.03988555142017749</v>
+        <v>0.07751258760666792</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03858721451767921</v>
+        <v>0.02407969528807373</v>
       </c>
     </row>
     <row r="100">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1050186544525475</v>
+        <v>0.06049534716945816</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.04046469758432358</v>
+        <v>0.07763861154380743</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0493950977415676</v>
+        <v>0.02617311044110689</v>
       </c>
     </row>
     <row r="101">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1042247748526027</v>
+        <v>0.0607572621186259</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.04122735016221126</v>
+        <v>0.07729102636944853</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05936956763866062</v>
+        <v>0.02537788632329478</v>
       </c>
     </row>
     <row r="102">
@@ -2020,13 +2020,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1030313121736586</v>
+        <v>0.06089650482631648</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.04456764064416211</v>
+        <v>0.07714545950106762</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06615908544031658</v>
+        <v>0.02499016851561538</v>
       </c>
     </row>
     <row r="103">
@@ -2036,13 +2036,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1021100277172964</v>
+        <v>0.0612819005826533</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.04655159075393973</v>
+        <v>0.07676795280319813</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06907092891508625</v>
+        <v>0.02772942142584409</v>
       </c>
     </row>
     <row r="104">
@@ -2052,13 +2052,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.101265286220677</v>
+        <v>0.06157990323088047</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.04749127247387625</v>
+        <v>0.07646018752991754</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07079511210843928</v>
+        <v>0.03388853960865853</v>
       </c>
     </row>
     <row r="105">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.09774328897981523</v>
+        <v>0.06462253898428416</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0573783425911903</v>
+        <v>0.07509038863357755</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1021152076806758</v>
+        <v>-0.005131286380288142</v>
       </c>
     </row>
     <row r="106">
@@ -2084,13 +2084,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.09840124113604387</v>
+        <v>0.07140250523250846</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.04908792908092371</v>
+        <v>0.06584363438417473</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1047963922933128</v>
+        <v>-0.02822700022560948</v>
       </c>
     </row>
     <row r="107">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.09921166080439531</v>
+        <v>0.06938911837575991</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.04208472642763393</v>
+        <v>0.06524089306916488</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1027223971444603</v>
+        <v>-0.0587034373464035</v>
       </c>
     </row>
     <row r="108">
@@ -2116,13 +2116,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.0997237115595022</v>
+        <v>0.07864767231302265</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.0416181239940262</v>
+        <v>0.04906191039556835</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09758333592116555</v>
+        <v>-0.09462527231964855</v>
       </c>
     </row>
     <row r="109">
@@ -2132,13 +2132,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.1004805611332559</v>
+        <v>0.08948183122780255</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.04482430251230654</v>
+        <v>0.01844513956471385</v>
       </c>
       <c r="D109" t="n">
-        <v>0.08505833799185138</v>
+        <v>-0.1110085726831885</v>
       </c>
     </row>
     <row r="110">
@@ -2148,13 +2148,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1011391824576589</v>
+        <v>0.09189184553619023</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.0492378216286147</v>
+        <v>0.007278535821014382</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06812884778474693</v>
+        <v>-0.09829181680622277</v>
       </c>
     </row>
     <row r="111">
@@ -2164,13 +2164,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1013925846848971</v>
+        <v>0.09143559595449299</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.05278323435678898</v>
+        <v>0.01148987228472652</v>
       </c>
       <c r="D111" t="n">
-        <v>0.05175548788464567</v>
+        <v>-0.07448984223893457</v>
       </c>
     </row>
     <row r="112">
@@ -2180,13 +2180,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.1015839754662535</v>
+        <v>0.09056194673500353</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.05433860940817755</v>
+        <v>0.02420135972147363</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03458177539471984</v>
+        <v>-0.03253300879632006</v>
       </c>
     </row>
     <row r="113">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.1013236215600173</v>
+        <v>0.08495686238657882</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.05576520554296856</v>
+        <v>0.04635316408477656</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01780272121502833</v>
+        <v>-0.0190999365071234</v>
       </c>
     </row>
     <row r="114">
@@ -2212,13 +2212,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1011237918353959</v>
+        <v>0.07628802496057625</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.05668255500933098</v>
+        <v>0.06312002162045123</v>
       </c>
       <c r="D114" t="n">
-        <v>0.008029852147237294</v>
+        <v>-0.007811941375434901</v>
       </c>
     </row>
     <row r="115">
@@ -2228,13 +2228,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.101293158774839</v>
+        <v>0.06979978533903726</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.05708498834879539</v>
+        <v>0.07116365129223325</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002450817867555376</v>
+        <v>0.0003380319378358001</v>
       </c>
     </row>
     <row r="116">
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.1016330186927775</v>
+        <v>0.06572979050028163</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.05580221905560963</v>
+        <v>0.07516356091021956</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.004083083054670515</v>
+        <v>0.00286824535183707</v>
       </c>
     </row>
     <row r="117">
@@ -2260,13 +2260,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.1023749180130013</v>
+        <v>0.06316632511678444</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.05028683030260357</v>
+        <v>0.07732057539235666</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.01344500620952567</v>
+        <v>0.004018861313967684</v>
       </c>
     </row>
     <row r="118">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.1031070153847355</v>
+        <v>0.0626643475160833</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.04376053571285</v>
+        <v>0.07774437796587381</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.02118759325116875</v>
+        <v>0.003019206791965234</v>
       </c>
     </row>
     <row r="119">
@@ -2292,13 +2292,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1035293536000749</v>
+        <v>0.06213517096241107</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.04195170242314933</v>
+        <v>0.07813270404499129</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.02251830085296118</v>
+        <v>0.002240347079371395</v>
       </c>
     </row>
     <row r="120">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1039808867374634</v>
+        <v>0.06160099764788689</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.04325180380049894</v>
+        <v>0.07844104828541659</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.0207889496876552</v>
+        <v>0.003031599787111334</v>
       </c>
     </row>
     <row r="121">
@@ -2324,13 +2324,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.1047487045522352</v>
+        <v>0.06133285281660565</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.04282359419403037</v>
+        <v>0.07843708708153675</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.01341854362459068</v>
+        <v>0.004321742836987833</v>
       </c>
     </row>
     <row r="122">
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.1056678033680921</v>
+        <v>0.0611348246635879</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.03867268567354151</v>
+        <v>0.07834172689614652</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.001426508998365653</v>
+        <v>0.006010450411240498</v>
       </c>
     </row>
     <row r="123">
@@ -2356,13 +2356,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.1062083345717637</v>
+        <v>0.06077913639461585</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.03470267630586878</v>
+        <v>0.07833839284996746</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01643518725162885</v>
+        <v>0.00857583079236863</v>
       </c>
     </row>
     <row r="124">
@@ -2372,13 +2372,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1059352375463388</v>
+        <v>0.06027837606986242</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.03347812635072797</v>
+        <v>0.07835523292916877</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03485407965401385</v>
+        <v>0.01062485111993489</v>
       </c>
     </row>
     <row r="125">
@@ -2388,13 +2388,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.1048296942100121</v>
+        <v>0.06003876640160647</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.03665658318419911</v>
+        <v>0.07817850848122609</v>
       </c>
       <c r="D125" t="n">
-        <v>0.05297622454070962</v>
+        <v>0.01123751689132463</v>
       </c>
     </row>
     <row r="126">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.1027138976294275</v>
+        <v>0.06048804227880163</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.04351290746894745</v>
+        <v>0.07761826854599845</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0705914738983804</v>
+        <v>0.008981156366472854</v>
       </c>
     </row>
     <row r="127">
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1003435102772131</v>
+        <v>0.06103068749843554</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04875920483991643</v>
+        <v>0.07714771713443801</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08601859781683896</v>
+        <v>0.007403527695852077</v>
       </c>
     </row>
     <row r="128">
@@ -2436,13 +2436,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.09888621848573857</v>
+        <v>0.06182417225641994</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.05098143409811103</v>
+        <v>0.07652808051373128</v>
       </c>
       <c r="D128" t="n">
-        <v>0.09426098133364763</v>
+        <v>0.009888217648108778</v>
       </c>
     </row>
     <row r="129">
@@ -2452,13 +2452,1613 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.09724094164580996</v>
+        <v>0.0619469915384672</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.05338775972238864</v>
+        <v>0.07657334124056778</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1007693556251993</v>
+        <v>0.01414129284097485</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ToeTip y 4</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0706242188322183</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.06923599853219138</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.01407330093240773</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ToeTip y 8</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.08193635291455331</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.04510573683449619</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.00650066482749357</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ToeTip y 12</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.07264643566980314</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.03568879050188286</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-0.01747405504701175</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ToeTip y 16</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.06829497125126148</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.02472286343036227</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-0.05731180706021991</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ToeTip y 20</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.08589327351282997</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.005504383870677113</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-0.08080825895579179</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ToeTip y 24</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.09202180321129833</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.00926694744443598</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-0.06954565314575213</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ToeTip y 28</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.09104838457067438</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.01854298627223461</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.0501169131481396</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ToeTip y 32</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.08900951450867838</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.03145855299049584</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-0.009747458736373856</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ToeTip y 36</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.08218455165756962</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0522863542193345</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.002755385431183359</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ToeTip y 40</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.07356275298118455</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.06575090591179301</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.007776678174666919</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ToeTip y 44</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.06856577265897675</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0713039658969128</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.01301280060024625</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ToeTip y 48</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.06551799846594415</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.07418996611626097</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.01417338625276873</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ToeTip y 52</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0638128731297216</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.07551156058076866</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.01676048982475159</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ToeTip y 56</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.0638469822289912</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.07547876546077402</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.01539985575944367</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ToeTip y 60</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.06366450372918099</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.07565694157722726</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.01473624485541678</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ToeTip y 64</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.06348443558997045</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.07585508951026171</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.01465984764290795</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ToeTip y 68</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.06362541030837604</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.07570357807345875</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.01426416855296582</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ToeTip y 72</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.06382895368118208</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.07550034998386423</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.01477568714579465</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ToeTip y 76</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.06401107246277876</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.07528996362053196</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.01637842420663096</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ToeTip y 80</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.06369982366448368</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.07541165490679466</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.01674700356097349</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ToeTip y 84</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.06348987957731742</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.07541341056302017</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0162500620650232</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ToeTip y 88</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.06358601551713022</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.0753298049667231</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.01569914294721573</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ToeTip y 92</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.06350854032262193</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.07541124365156214</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.01511317207911103</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ToeTip y 96</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.06396533446986258</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.07495380732762758</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.01808210598042337</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ToeTip y 100</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.06469682108754295</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.07432973513305116</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.02457756886226998</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Ankle Angle 4</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.07171313860635305</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0674984716777057</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.03913601922411489</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Ankle Angle 8</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.0702389448458979</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.07004274042338814</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.0297359896038008</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Ankle Angle 12</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.06092792322818906</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.07868498394190125</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.02985106299479789</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Ankle Angle 16</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.04996165657633813</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.0853984800741257</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-0.04164854489057837</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Ankle Angle 20</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.0357879856597903</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.08951964542610659</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.05829874668864386</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Ankle Angle 24</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.01813471828051782</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.09206878560253176</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.07952558864266075</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Ankle Angle 28</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.005592825163138798</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.09215635518503652</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-0.08671291751293943</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Ankle Angle 32</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.002995982371540599</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.09322574463251421</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.08219641458126395</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Ankle Angle 36</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.007744494016143624</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.09141041562246084</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-0.0909993626138117</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ankle Angle 40</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.01017643723149299</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.09274808672042034</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.09186914853573808</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Ankle Angle 44</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.01782314468796893</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.09256851952919375</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.08554127814555408</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Ankle Angle 48</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.02436731074070076</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.09262069221908985</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.06752848450569127</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Ankle Angle 52</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.02834758562833559</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.09299526947482713</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.05812915494254717</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Ankle Angle 56</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.03089707985597736</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.09337496383458374</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.04779354596100882</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Ankle Angle 60</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.03262227603324366</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.09346782316616496</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.0390330609451152</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Ankle Angle 64</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.03434279398283507</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.09326009700410383</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.03060123372096473</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Ankle Angle 68</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.03593991460280582</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.09287875517517201</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-0.02293376728488481</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Ankle Angle 72</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.03786873918444784</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.09216485967988709</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-0.01805692474904191</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Ankle Angle 76</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.03946357512704547</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.09157240011037383</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-0.0146206606002376</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Ankle Angle 80</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.04123446490869882</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.0908859317483376</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-0.01242539029545698</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Ankle Angle 84</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.04257293582310072</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.09034398834853782</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-0.01030214885996989</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Ankle Angle 88</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.04427534680294466</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.08957367345354351</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-0.008401498934007686</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Ankle Angle 92</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>-0.04670940703571432</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.08821477812297289</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.00844063323141701</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Ankle Angle 96</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.05110972008424791</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.08551374338655661</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-0.01396863467463849</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Ankle Angle 100</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.05696838628523788</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.08198778312108451</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-0.01974767440783589</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Knee Angle 4</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.05432193122983811</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.08315271613820888</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.05125902858281688</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Knee Angle 8</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-0.05307461551747351</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.08369303688243564</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.04095108041673159</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Knee Angle 12</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.04820352850975437</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.08562342468576659</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.02097454185654643</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Knee Angle 16</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.04315824831938747</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.0884044049780263</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.003863008251099277</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Knee Angle 20</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.03486329353608784</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.09238312070164349</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-0.009796179012587725</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Knee Angle 24</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.0274068535275341</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.09523772897720617</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-0.02317280399334287</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Knee Angle 28</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.02001008243548643</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.09692373915748381</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-0.03312047537994831</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Knee Angle 32</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.01573358218883131</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.09665888339853554</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.03250785188016981</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Knee Angle 36</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>-0.01715938090079163</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.09553645702325154</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-0.03096466828002573</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Knee Angle 40</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-0.02158338140822839</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.09562115714038458</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.02252211357159263</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Knee Angle 44</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>-0.02698657031041913</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.09578927065734168</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.01263944239542689</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Knee Angle 48</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-0.03166396912241331</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.09516679284914396</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.003104757296600162</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Knee Angle 52</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>-0.03498200083946233</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.09426779666659441</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.005761794403777081</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Knee Angle 56</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-0.0375600524687174</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.09322252732430981</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.01533761847775542</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Knee Angle 60</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-0.03945315727760105</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.09232759946195472</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.02326940314565765</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Knee Angle 64</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>-0.04091862685566443</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.09146723914372745</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.0307049922682082</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Knee Angle 68</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>-0.04208933183787163</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.09057497530727698</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.03843728163219686</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Knee Angle 72</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-0.04336735877544096</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.08947126228205425</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.04588277988549127</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Knee Angle 76</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>-0.04477561969931233</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.08810187671491825</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.05260220789593666</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Knee Angle 80</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>-0.04620819336356523</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.08677856969110134</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.05765121569272628</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Knee Angle 84</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-0.04762847302291255</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.08568526976468711</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.05950285177594607</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Knee Angle 88</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-0.04886123208602678</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.08476065048043757</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0608256448710204</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Knee Angle 92</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-0.05039989988397338</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.08399368301369663</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.06055066165496803</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Knee Angle 96</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-0.05145837363353431</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.08391279875001076</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.058391990234739</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Knee Angle 100</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>-0.05159094362506061</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.08444403979885069</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.05591776731493417</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hip Angle 4</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-0.06225308839486556</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.07552700872675379</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.06529058927782211</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Hip Angle 8</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>-0.06698355497385006</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.07148993064145827</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0558135579659326</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Hip Angle 12</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-0.07132902072025246</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.06727773351667067</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.04139473184615001</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Hip Angle 16</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.07177415710692449</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.06701481450610053</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.03068094852844514</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hip Angle 20</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>-0.06930447472019614</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.07023305304889567</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.02568919717644376</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Hip Angle 24</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-0.06531110245772084</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.0747977429784033</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.02740210501173346</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Hip Angle 28</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.06108168738810543</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.07862803645153019</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.03170653732028499</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Hip Angle 32</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.05828968858047069</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.08017921524164623</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.04236423161331298</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hip Angle 36</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.05867288462289954</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.07889521940201989</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.04845155551349258</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hip Angle 40</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-0.060155096294891</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.077203306900803</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.05340036096368022</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hip Angle 44</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-0.0615113920274967</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.07604192171558681</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.05589170490761451</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hip Angle 48</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.06337484360945955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.0749368030935056</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.05485106996177829</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hip Angle 52</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-0.06505963080459086</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.07372548143827715</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.05470058836161868</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hip Angle 56</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.06644254919382896</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.07252871536934609</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.05468673410321303</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hip Angle 60</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.06746887005694197</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.07155640215105495</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.05465352987358425</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hip Angle 64</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-0.06808236217633032</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.07097552698063217</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.05466670808989416</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hip Angle 68</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>-0.06862407171681277</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.07054936099972055</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.05321849296974204</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hip Angle 72</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-0.0689314429494769</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.07031368881680486</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.05192934281025208</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hip Angle 76</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.06909477140796104</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.07003366878333844</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.05211875374960461</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hip Angle 80</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.06887658119529562</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.06956229527466243</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.05582575434928342</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hip Angle 84</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-0.06835640634609923</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.06879043877237942</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.06159368875007864</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hip Angle 88</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.06716702075207699</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.06934573757371286</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.0662815699933159</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hip Angle 92</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-0.06652196671462635</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.07011536845506837</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.06758408895787202</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hip Angle 96</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.06419960536844464</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.07175763127380019</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.0728502025059069</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hip Angle 100</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.06155732973012775</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.07441449776125188</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.07304168382319197</v>
       </c>
     </row>
   </sheetData>
